--- a/data-migration/xlsx_1900-/1900_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1900_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204232A1-5228-44C1-A779-6092D2241113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FEFFD-BC2D-428C-BDF3-7E06A568CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="956">
   <si>
     <t>1900</t>
   </si>
@@ -2768,9 +2768,6 @@
     <t>betz_l</t>
   </si>
   <si>
-    <t>meyervonknonau_g</t>
-  </si>
-  <si>
     <t>billeter_g</t>
   </si>
   <si>
@@ -2888,9 +2885,6 @@
     <t>gysi_a</t>
   </si>
   <si>
-    <t>fick_ae</t>
-  </si>
-  <si>
     <t>täglich ausser Mittwoch 10 1/2-12 im grossen Operationssaal</t>
   </si>
   <si>
@@ -2898,6 +2892,15 @@
   </si>
   <si>
     <t>heim_a1</t>
+  </si>
+  <si>
+    <t>fick_age</t>
+  </si>
+  <si>
+    <t>meyer-knonau_g</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -3244,20 +3247,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F248" workbookViewId="0">
-      <selection activeCell="H276" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G87" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
-    <col min="6" max="6" width="129.26953125" customWidth="1"/>
-    <col min="7" max="7" width="52.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="129.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3942,7 +3945,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4072,10 +4075,10 @@
         <v>839</v>
       </c>
       <c r="I31" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4127,7 +4130,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4234,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +4286,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +4786,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5229,7 +5232,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5466,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5645,7 +5648,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +6038,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6084,10 +6087,10 @@
         <v>871</v>
       </c>
       <c r="I107" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6139,7 +6142,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6168,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>302</v>
       </c>
       <c r="G113" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H113" t="s">
         <v>875</v>
@@ -6243,7 +6246,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6347,7 +6350,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6480,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +6584,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6653,13 +6656,13 @@
         <v>343</v>
       </c>
       <c r="H129" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I129" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6679,13 +6682,13 @@
         <v>346</v>
       </c>
       <c r="H130" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="I130" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +6870,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -6919,7 +6922,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -6930,7 +6933,7 @@
         <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F140" t="s">
         <v>369</v>
@@ -6945,7 +6948,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F141" t="s">
         <v>372</v>
@@ -6971,7 +6974,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>374</v>
       </c>
       <c r="E142" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F142" t="s">
         <v>375</v>
@@ -6997,7 +7000,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F143" t="s">
         <v>378</v>
@@ -7023,7 +7026,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>379</v>
       </c>
       <c r="E144" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F144" t="s">
         <v>380</v>
@@ -7049,7 +7052,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>381</v>
       </c>
       <c r="E145" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F145" t="s">
         <v>382</v>
@@ -7075,7 +7078,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F146" t="s">
         <v>384</v>
@@ -7101,7 +7104,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>386</v>
       </c>
       <c r="E147" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F147" t="s">
         <v>387</v>
@@ -7127,7 +7130,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>389</v>
       </c>
       <c r="E148" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F148" t="s">
         <v>390</v>
@@ -7153,7 +7156,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7164,7 +7167,7 @@
         <v>392</v>
       </c>
       <c r="E149" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F149" t="s">
         <v>393</v>
@@ -7179,7 +7182,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>395</v>
       </c>
       <c r="E150" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F150" t="s">
         <v>396</v>
@@ -7205,7 +7208,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>826</v>
       </c>
       <c r="E151" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F151" t="s">
         <v>822</v>
@@ -7231,7 +7234,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>399</v>
       </c>
       <c r="E152" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F152" t="s">
         <v>400</v>
@@ -7257,7 +7260,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>402</v>
       </c>
       <c r="E153" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F153" t="s">
         <v>824</v>
@@ -7283,7 +7286,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>404</v>
       </c>
       <c r="E154" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F154" t="s">
         <v>405</v>
@@ -7309,7 +7312,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7320,7 +7323,7 @@
         <v>407</v>
       </c>
       <c r="E155" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F155" t="s">
         <v>408</v>
@@ -7335,7 +7338,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>410</v>
       </c>
       <c r="E156" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F156" t="s">
         <v>823</v>
@@ -7361,7 +7364,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F157" t="s">
         <v>413</v>
@@ -7387,7 +7390,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>415</v>
       </c>
       <c r="E158" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F158" t="s">
         <v>416</v>
@@ -7413,7 +7416,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>417</v>
       </c>
       <c r="E159" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F159" t="s">
         <v>418</v>
@@ -7439,7 +7442,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>419</v>
       </c>
       <c r="E160" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F160" t="s">
         <v>420</v>
@@ -7465,7 +7468,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>421</v>
       </c>
       <c r="E161" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F161" t="s">
         <v>422</v>
@@ -7491,7 +7494,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>423</v>
       </c>
       <c r="E162" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F162" t="s">
         <v>424</v>
@@ -7517,7 +7520,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>426</v>
       </c>
       <c r="E163" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F163" t="s">
         <v>427</v>
@@ -7543,7 +7546,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>428</v>
       </c>
       <c r="E164" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F164" t="s">
         <v>429</v>
@@ -7569,7 +7572,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>430</v>
       </c>
       <c r="E165" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F165" t="s">
         <v>825</v>
@@ -7595,7 +7598,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>432</v>
       </c>
       <c r="E166" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F166" t="s">
         <v>433</v>
@@ -7621,7 +7624,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>434</v>
       </c>
       <c r="E167" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F167" t="s">
         <v>435</v>
@@ -7647,7 +7650,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F168" t="s">
         <v>797</v>
@@ -7673,7 +7676,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>438</v>
       </c>
       <c r="E169" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F169" t="s">
         <v>439</v>
@@ -7699,7 +7702,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>440</v>
       </c>
       <c r="E170" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F170" t="s">
         <v>441</v>
@@ -7725,7 +7728,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>443</v>
       </c>
       <c r="E171" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F171" t="s">
         <v>444</v>
@@ -7751,7 +7754,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>445</v>
       </c>
       <c r="E172" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F172" t="s">
         <v>446</v>
@@ -7777,7 +7780,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>447</v>
       </c>
       <c r="E173" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F173" t="s">
         <v>448</v>
@@ -7803,7 +7806,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>450</v>
       </c>
       <c r="E174" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F174" t="s">
         <v>451</v>
@@ -7829,7 +7832,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>453</v>
       </c>
       <c r="E175" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F175" t="s">
         <v>454</v>
@@ -7855,7 +7858,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -7866,7 +7869,7 @@
         <v>456</v>
       </c>
       <c r="E176" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F176" t="s">
         <v>457</v>
@@ -7881,7 +7884,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>459</v>
       </c>
       <c r="E177" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F177" t="s">
         <v>460</v>
@@ -7907,7 +7910,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>462</v>
       </c>
       <c r="E178" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F178" t="s">
         <v>463</v>
@@ -7933,7 +7936,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>464</v>
       </c>
       <c r="E179" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F179" t="s">
         <v>465</v>
@@ -7959,7 +7962,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>466</v>
       </c>
       <c r="E180" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F180" t="s">
         <v>467</v>
@@ -7985,7 +7988,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>469</v>
       </c>
       <c r="E181" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F181" t="s">
         <v>470</v>
@@ -8011,7 +8014,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>472</v>
       </c>
       <c r="E182" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F182" t="s">
         <v>473</v>
@@ -8037,7 +8040,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>474</v>
       </c>
       <c r="E183" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F183" t="s">
         <v>475</v>
@@ -8063,7 +8066,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F184" t="s">
         <v>477</v>
@@ -8089,7 +8092,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8100,7 +8103,7 @@
         <v>479</v>
       </c>
       <c r="E185" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F185" t="s">
         <v>480</v>
@@ -8115,7 +8118,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>482</v>
       </c>
       <c r="E186" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F186" t="s">
         <v>483</v>
@@ -8141,7 +8144,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>484</v>
       </c>
       <c r="E187" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F187" t="s">
         <v>485</v>
@@ -8167,7 +8170,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>486</v>
       </c>
       <c r="E188" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F188" t="s">
         <v>487</v>
@@ -8193,7 +8196,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>489</v>
       </c>
       <c r="E189" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F189" t="s">
         <v>490</v>
@@ -8219,7 +8222,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>492</v>
       </c>
       <c r="E190" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F190" t="s">
         <v>493</v>
@@ -8245,7 +8248,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>496</v>
       </c>
       <c r="E191" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F191" t="s">
         <v>497</v>
@@ -8274,7 +8277,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>498</v>
       </c>
       <c r="E192" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F192" t="s">
         <v>499</v>
@@ -8300,7 +8303,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8311,7 +8314,7 @@
         <v>501</v>
       </c>
       <c r="E193" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F193" t="s">
         <v>502</v>
@@ -8326,7 +8329,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>504</v>
       </c>
       <c r="E194" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F194" t="s">
         <v>505</v>
@@ -8352,7 +8355,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8363,7 +8366,7 @@
         <v>507</v>
       </c>
       <c r="E195" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F195" t="s">
         <v>798</v>
@@ -8378,7 +8381,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>509</v>
       </c>
       <c r="E196" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F196" t="s">
         <v>510</v>
@@ -8404,7 +8407,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +8418,7 @@
         <v>512</v>
       </c>
       <c r="E197" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F197" t="s">
         <v>513</v>
@@ -8430,7 +8433,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>514</v>
       </c>
       <c r="E198" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F198" t="s">
         <v>799</v>
@@ -8456,7 +8459,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8467,7 +8470,7 @@
         <v>515</v>
       </c>
       <c r="E199" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F199" t="s">
         <v>800</v>
@@ -8482,7 +8485,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>516</v>
       </c>
       <c r="E200" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F200" t="s">
         <v>801</v>
@@ -8508,7 +8511,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>518</v>
       </c>
       <c r="E201" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F201" t="s">
         <v>519</v>
@@ -8534,7 +8537,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>520</v>
       </c>
       <c r="E202" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F202" t="s">
         <v>521</v>
@@ -8560,7 +8563,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>523</v>
       </c>
       <c r="E203" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F203" t="s">
         <v>524</v>
@@ -8586,7 +8589,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8597,7 +8600,7 @@
         <v>525</v>
       </c>
       <c r="E204" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F204" t="s">
         <v>526</v>
@@ -8612,7 +8615,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8623,7 +8626,7 @@
         <v>528</v>
       </c>
       <c r="E205" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F205" t="s">
         <v>529</v>
@@ -8638,7 +8641,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>530</v>
       </c>
       <c r="E206" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F206" t="s">
         <v>802</v>
@@ -8664,7 +8667,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8675,7 +8678,7 @@
         <v>532</v>
       </c>
       <c r="E207" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F207" t="s">
         <v>533</v>
@@ -8690,7 +8693,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8701,7 +8704,7 @@
         <v>534</v>
       </c>
       <c r="E208" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F208" t="s">
         <v>803</v>
@@ -8716,7 +8719,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>536</v>
       </c>
       <c r="E209" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F209" t="s">
         <v>804</v>
@@ -8742,7 +8745,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>537</v>
       </c>
       <c r="E210" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F210" t="s">
         <v>538</v>
@@ -8768,7 +8771,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>539</v>
       </c>
       <c r="E211" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F211" t="s">
         <v>805</v>
@@ -8788,13 +8791,13 @@
         <v>315</v>
       </c>
       <c r="H211" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="I211" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -8805,7 +8808,7 @@
         <v>540</v>
       </c>
       <c r="E212" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F212" t="s">
         <v>541</v>
@@ -8814,13 +8817,13 @@
         <v>13</v>
       </c>
       <c r="H212" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I212" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -8831,7 +8834,7 @@
         <v>542</v>
       </c>
       <c r="E213" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F213" t="s">
         <v>543</v>
@@ -8840,13 +8843,13 @@
         <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I213" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>544</v>
       </c>
       <c r="E214" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F214" t="s">
         <v>806</v>
@@ -8866,7 +8869,7 @@
         <v>545</v>
       </c>
       <c r="H214" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I214" t="s">
         <v>827</v>
@@ -8875,7 +8878,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>546</v>
       </c>
       <c r="E215" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F215" t="s">
         <v>547</v>
@@ -8895,13 +8898,13 @@
         <v>548</v>
       </c>
       <c r="H215" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="I215" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -8912,7 +8915,7 @@
         <v>549</v>
       </c>
       <c r="E216" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F216" t="s">
         <v>550</v>
@@ -8921,13 +8924,13 @@
         <v>397</v>
       </c>
       <c r="H216" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="I216" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8938,7 +8941,7 @@
         <v>551</v>
       </c>
       <c r="E217" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F217" t="s">
         <v>552</v>
@@ -8947,13 +8950,13 @@
         <v>224</v>
       </c>
       <c r="H217" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I217" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>553</v>
       </c>
       <c r="E218" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F218" t="s">
         <v>554</v>
@@ -8973,13 +8976,13 @@
         <v>41</v>
       </c>
       <c r="H218" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I218" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>555</v>
       </c>
       <c r="E219" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F219" t="s">
         <v>556</v>
@@ -8999,13 +9002,13 @@
         <v>557</v>
       </c>
       <c r="H219" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I219" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9016,7 +9019,7 @@
         <v>558</v>
       </c>
       <c r="E220" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F220" t="s">
         <v>559</v>
@@ -9025,13 +9028,13 @@
         <v>214</v>
       </c>
       <c r="H220" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I220" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9042,7 +9045,7 @@
         <v>560</v>
       </c>
       <c r="E221" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F221" t="s">
         <v>561</v>
@@ -9051,13 +9054,13 @@
         <v>562</v>
       </c>
       <c r="H221" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I221" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9068,7 +9071,7 @@
         <v>563</v>
       </c>
       <c r="E222" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F222" t="s">
         <v>564</v>
@@ -9077,13 +9080,13 @@
         <v>13</v>
       </c>
       <c r="H222" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I222" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>565</v>
       </c>
       <c r="E223" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F223" t="s">
         <v>566</v>
@@ -9103,13 +9106,13 @@
         <v>567</v>
       </c>
       <c r="H223" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I223" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>568</v>
       </c>
       <c r="E224" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F224" t="s">
         <v>569</v>
@@ -9129,13 +9132,13 @@
         <v>531</v>
       </c>
       <c r="H224" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I224" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>570</v>
       </c>
       <c r="E225" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F225" t="s">
         <v>571</v>
@@ -9155,7 +9158,7 @@
         <v>572</v>
       </c>
       <c r="H225" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I225" t="s">
         <v>827</v>
@@ -9164,7 +9167,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>573</v>
       </c>
       <c r="E226" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F226" t="s">
         <v>574</v>
@@ -9184,13 +9187,13 @@
         <v>575</v>
       </c>
       <c r="H226" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="I226" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9201,7 +9204,7 @@
         <v>576</v>
       </c>
       <c r="E227" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F227" t="s">
         <v>577</v>
@@ -9210,13 +9213,13 @@
         <v>578</v>
       </c>
       <c r="H227" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="I227" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9230,7 @@
         <v>579</v>
       </c>
       <c r="E228" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F228" t="s">
         <v>580</v>
@@ -9236,13 +9239,13 @@
         <v>581</v>
       </c>
       <c r="H228" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I228" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>582</v>
       </c>
       <c r="E229" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F229" t="s">
         <v>583</v>
@@ -9262,13 +9265,13 @@
         <v>78</v>
       </c>
       <c r="H229" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I229" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>584</v>
       </c>
       <c r="E230" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F230" t="s">
         <v>585</v>
@@ -9288,7 +9291,7 @@
         <v>586</v>
       </c>
       <c r="H230" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I230" t="s">
         <v>827</v>
@@ -9297,7 +9300,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>587</v>
       </c>
       <c r="E231" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F231" t="s">
         <v>588</v>
@@ -9317,13 +9320,13 @@
         <v>41</v>
       </c>
       <c r="H231" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I231" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>589</v>
       </c>
       <c r="E232" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F232" t="s">
         <v>590</v>
@@ -9343,13 +9346,13 @@
         <v>13</v>
       </c>
       <c r="H232" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I232" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9360,7 +9363,7 @@
         <v>591</v>
       </c>
       <c r="E233" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F233" t="s">
         <v>592</v>
@@ -9369,13 +9372,13 @@
         <v>13</v>
       </c>
       <c r="H233" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I233" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9386,7 +9389,7 @@
         <v>593</v>
       </c>
       <c r="E234" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F234" t="s">
         <v>594</v>
@@ -9395,13 +9398,13 @@
         <v>548</v>
       </c>
       <c r="H234" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I234" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>595</v>
       </c>
       <c r="E235" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F235" t="s">
         <v>596</v>
@@ -9421,13 +9424,13 @@
         <v>597</v>
       </c>
       <c r="H235" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I235" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>598</v>
       </c>
       <c r="E236" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F236" t="s">
         <v>599</v>
@@ -9447,13 +9450,13 @@
         <v>600</v>
       </c>
       <c r="H236" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I236" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>601</v>
       </c>
       <c r="E237" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F237" t="s">
         <v>602</v>
@@ -9473,13 +9476,13 @@
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I237" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>603</v>
       </c>
       <c r="E238" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F238" t="s">
         <v>604</v>
@@ -9499,13 +9502,13 @@
         <v>41</v>
       </c>
       <c r="H238" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I238" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>605</v>
       </c>
       <c r="E239" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F239" t="s">
         <v>606</v>
@@ -9525,13 +9528,13 @@
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I239" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>607</v>
       </c>
       <c r="E240" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F240" t="s">
         <v>608</v>
@@ -9551,13 +9554,13 @@
         <v>397</v>
       </c>
       <c r="H240" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I240" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9568,7 +9571,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F241" t="s">
         <v>610</v>
@@ -9577,13 +9580,13 @@
         <v>230</v>
       </c>
       <c r="H241" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I241" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>611</v>
       </c>
       <c r="E242" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F242" t="s">
         <v>612</v>
@@ -9603,13 +9606,13 @@
         <v>4</v>
       </c>
       <c r="H242" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I242" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>613</v>
       </c>
       <c r="E243" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F243" t="s">
         <v>614</v>
@@ -9629,13 +9632,13 @@
         <v>41</v>
       </c>
       <c r="H243" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I243" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9646,7 +9649,7 @@
         <v>615</v>
       </c>
       <c r="E244" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F244" t="s">
         <v>616</v>
@@ -9655,13 +9658,13 @@
         <v>41</v>
       </c>
       <c r="H244" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I244" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>617</v>
       </c>
       <c r="E245" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F245" t="s">
         <v>618</v>
@@ -9681,13 +9684,13 @@
         <v>56</v>
       </c>
       <c r="H245" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I245" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9698,7 +9701,7 @@
         <v>619</v>
       </c>
       <c r="E246" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F246" t="s">
         <v>620</v>
@@ -9707,13 +9710,13 @@
         <v>41</v>
       </c>
       <c r="H246" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I246" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9724,7 +9727,7 @@
         <v>621</v>
       </c>
       <c r="E247" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F247" t="s">
         <v>622</v>
@@ -9733,13 +9736,13 @@
         <v>300</v>
       </c>
       <c r="H247" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I247" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9750,7 +9753,7 @@
         <v>623</v>
       </c>
       <c r="E248" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F248" t="s">
         <v>624</v>
@@ -9759,13 +9762,13 @@
         <v>625</v>
       </c>
       <c r="H248" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I248" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -9779,7 +9782,7 @@
         <v>626</v>
       </c>
       <c r="E249" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F249" t="s">
         <v>627</v>
@@ -9788,13 +9791,13 @@
         <v>449</v>
       </c>
       <c r="H249" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I249" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>628</v>
       </c>
       <c r="E250" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F250" t="s">
         <v>629</v>
@@ -9814,13 +9817,13 @@
         <v>630</v>
       </c>
       <c r="H250" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I250" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>631</v>
       </c>
       <c r="E251" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -9840,13 +9843,13 @@
         <v>633</v>
       </c>
       <c r="H251" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I251" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>634</v>
       </c>
       <c r="E252" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F252" t="s">
         <v>635</v>
@@ -9866,13 +9869,13 @@
         <v>41</v>
       </c>
       <c r="H252" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I252" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>636</v>
       </c>
       <c r="E253" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F253" t="s">
         <v>637</v>
@@ -9892,13 +9895,13 @@
         <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I253" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>638</v>
       </c>
       <c r="E254" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F254" t="s">
         <v>639</v>
@@ -9918,13 +9921,13 @@
         <v>640</v>
       </c>
       <c r="H254" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I254" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>641</v>
       </c>
       <c r="E255" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F255" t="s">
         <v>642</v>
@@ -9944,13 +9947,13 @@
         <v>173</v>
       </c>
       <c r="H255" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I255" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>643</v>
       </c>
       <c r="E256" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F256" t="s">
         <v>644</v>
@@ -9970,13 +9973,13 @@
         <v>43</v>
       </c>
       <c r="H256" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I256" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>645</v>
       </c>
       <c r="E257" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F257" t="s">
         <v>646</v>
@@ -9996,13 +9999,13 @@
         <v>647</v>
       </c>
       <c r="H257" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I257" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>648</v>
       </c>
       <c r="E258" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F258" t="s">
         <v>649</v>
@@ -10022,13 +10025,13 @@
         <v>224</v>
       </c>
       <c r="H258" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I258" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>650</v>
       </c>
       <c r="E259" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F259" t="s">
         <v>651</v>
@@ -10048,13 +10051,13 @@
         <v>652</v>
       </c>
       <c r="H259" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I259" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>653</v>
       </c>
       <c r="E260" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F260" t="s">
         <v>654</v>
@@ -10074,13 +10077,13 @@
         <v>655</v>
       </c>
       <c r="H260" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I260" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>656</v>
       </c>
       <c r="E261" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F261" t="s">
         <v>657</v>
@@ -10100,13 +10103,13 @@
         <v>658</v>
       </c>
       <c r="H261" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I261" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>659</v>
       </c>
       <c r="E262" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F262" t="s">
         <v>660</v>
@@ -10126,13 +10129,13 @@
         <v>661</v>
       </c>
       <c r="H262" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I262" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>662</v>
       </c>
       <c r="E263" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F263" t="s">
         <v>663</v>
@@ -10152,13 +10155,13 @@
         <v>664</v>
       </c>
       <c r="H263" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I263" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10169,7 +10172,7 @@
         <v>665</v>
       </c>
       <c r="E264" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F264" t="s">
         <v>666</v>
@@ -10178,13 +10181,13 @@
         <v>667</v>
       </c>
       <c r="H264" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I264" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10195,19 +10198,19 @@
         <v>668</v>
       </c>
       <c r="E265" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F265" t="s">
         <v>669</v>
       </c>
       <c r="H265" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I265" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10218,7 +10221,7 @@
         <v>670</v>
       </c>
       <c r="E266" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F266" t="s">
         <v>671</v>
@@ -10227,13 +10230,13 @@
         <v>672</v>
       </c>
       <c r="H266" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I266" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>673</v>
       </c>
       <c r="E267" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F267" t="s">
         <v>674</v>
@@ -10253,13 +10256,13 @@
         <v>675</v>
       </c>
       <c r="H267" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I267" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10270,7 +10273,7 @@
         <v>676</v>
       </c>
       <c r="E268" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F268" t="s">
         <v>677</v>
@@ -10279,13 +10282,13 @@
         <v>224</v>
       </c>
       <c r="H268" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I268" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10296,7 +10299,7 @@
         <v>678</v>
       </c>
       <c r="E269" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F269" t="s">
         <v>679</v>
@@ -10305,13 +10308,13 @@
         <v>680</v>
       </c>
       <c r="H269" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I269" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>681</v>
       </c>
       <c r="E270" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F270" t="s">
         <v>682</v>
@@ -10331,13 +10334,13 @@
         <v>488</v>
       </c>
       <c r="H270" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I270" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>683</v>
       </c>
       <c r="E271" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F271" t="s">
         <v>684</v>
@@ -10357,13 +10360,13 @@
         <v>224</v>
       </c>
       <c r="H271" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I271" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>685</v>
       </c>
       <c r="E272" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F272" t="s">
         <v>686</v>
@@ -10383,13 +10386,13 @@
         <v>687</v>
       </c>
       <c r="H272" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I272" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>688</v>
       </c>
       <c r="E273" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F273" t="s">
         <v>689</v>
@@ -10409,13 +10412,13 @@
         <v>690</v>
       </c>
       <c r="H273" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I273" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10426,7 +10429,7 @@
         <v>691</v>
       </c>
       <c r="E274" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F274" t="s">
         <v>692</v>
@@ -10435,13 +10438,13 @@
         <v>41</v>
       </c>
       <c r="H274" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I274" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>693</v>
       </c>
       <c r="E275" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F275" t="s">
         <v>694</v>
@@ -10464,13 +10467,13 @@
         <v>173</v>
       </c>
       <c r="H275" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I275" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +10484,7 @@
         <v>695</v>
       </c>
       <c r="E276" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F276" t="s">
         <v>696</v>
@@ -10490,13 +10493,13 @@
         <v>697</v>
       </c>
       <c r="H276" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I276" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>698</v>
       </c>
       <c r="E277" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F277" t="s">
         <v>699</v>
@@ -10516,13 +10519,13 @@
         <v>25</v>
       </c>
       <c r="H277" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I277" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10533,7 +10536,7 @@
         <v>700</v>
       </c>
       <c r="E278" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F278" t="s">
         <v>701</v>
@@ -10542,13 +10545,13 @@
         <v>702</v>
       </c>
       <c r="H278" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I278" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10559,7 +10562,7 @@
         <v>703</v>
       </c>
       <c r="E279" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F279" t="s">
         <v>704</v>
@@ -10568,13 +10571,13 @@
         <v>41</v>
       </c>
       <c r="H279" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I279" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>705</v>
       </c>
       <c r="E280" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F280" t="s">
         <v>706</v>
@@ -10594,13 +10597,13 @@
         <v>28</v>
       </c>
       <c r="H280" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I280" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>707</v>
       </c>
       <c r="E281" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F281" t="s">
         <v>708</v>
@@ -10620,13 +10623,13 @@
         <v>41</v>
       </c>
       <c r="H281" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I281" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>709</v>
       </c>
       <c r="E282" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F282" t="s">
         <v>710</v>
@@ -10646,13 +10649,13 @@
         <v>28</v>
       </c>
       <c r="H282" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I282" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>711</v>
       </c>
       <c r="E283" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F283" t="s">
         <v>712</v>
@@ -10672,13 +10675,13 @@
         <v>713</v>
       </c>
       <c r="H283" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I283" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10689,7 +10692,7 @@
         <v>714</v>
       </c>
       <c r="E284" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F284" t="s">
         <v>807</v>
@@ -10698,19 +10701,19 @@
         <v>715</v>
       </c>
       <c r="H284" t="s">
+        <v>935</v>
+      </c>
+      <c r="I284" t="s">
+        <v>828</v>
+      </c>
+      <c r="K284" t="s">
         <v>936</v>
-      </c>
-      <c r="I284" t="s">
-        <v>828</v>
-      </c>
-      <c r="K284" t="s">
-        <v>937</v>
       </c>
       <c r="L284" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10721,7 +10724,7 @@
         <v>716</v>
       </c>
       <c r="E285" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F285" t="s">
         <v>808</v>
@@ -10730,19 +10733,19 @@
         <v>717</v>
       </c>
       <c r="H285" t="s">
+        <v>935</v>
+      </c>
+      <c r="I285" t="s">
+        <v>828</v>
+      </c>
+      <c r="K285" t="s">
         <v>936</v>
-      </c>
-      <c r="I285" t="s">
-        <v>828</v>
-      </c>
-      <c r="K285" t="s">
-        <v>937</v>
       </c>
       <c r="L285" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10753,7 +10756,7 @@
         <v>718</v>
       </c>
       <c r="E286" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F286" t="s">
         <v>809</v>
@@ -10762,19 +10765,19 @@
         <v>719</v>
       </c>
       <c r="H286" t="s">
+        <v>935</v>
+      </c>
+      <c r="I286" t="s">
+        <v>828</v>
+      </c>
+      <c r="K286" t="s">
         <v>936</v>
-      </c>
-      <c r="I286" t="s">
-        <v>828</v>
-      </c>
-      <c r="K286" t="s">
-        <v>937</v>
       </c>
       <c r="L286" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>720</v>
       </c>
       <c r="E287" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F287" t="s">
         <v>721</v>
@@ -10794,7 +10797,7 @@
         <v>722</v>
       </c>
       <c r="H287" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I287" t="s">
         <v>828</v>
@@ -10803,7 +10806,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>723</v>
       </c>
       <c r="E288" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F288" t="s">
         <v>724</v>
@@ -10823,7 +10826,7 @@
         <v>725</v>
       </c>
       <c r="H288" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I288" t="s">
         <v>828</v>
@@ -10832,7 +10835,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>726</v>
       </c>
       <c r="E289" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F289" t="s">
         <v>727</v>
@@ -10852,7 +10855,7 @@
         <v>728</v>
       </c>
       <c r="H289" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I289" t="s">
         <v>828</v>
@@ -10861,7 +10864,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -10872,7 +10875,7 @@
         <v>729</v>
       </c>
       <c r="E290" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F290" t="s">
         <v>730</v>
@@ -10881,7 +10884,7 @@
         <v>731</v>
       </c>
       <c r="H290" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I290" t="s">
         <v>828</v>
@@ -10890,7 +10893,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>732</v>
       </c>
       <c r="E291" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F291" t="s">
         <v>733</v>
@@ -10910,7 +10913,7 @@
         <v>300</v>
       </c>
       <c r="H291" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I291" t="s">
         <v>828</v>
@@ -10919,7 +10922,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>734</v>
       </c>
       <c r="E292" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F292" t="s">
         <v>735</v>
@@ -10939,7 +10942,7 @@
         <v>736</v>
       </c>
       <c r="H292" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I292" t="s">
         <v>828</v>
@@ -10948,7 +10951,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>737</v>
       </c>
       <c r="E293" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F293" t="s">
         <v>738</v>
@@ -10968,7 +10971,7 @@
         <v>739</v>
       </c>
       <c r="H293" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I293" t="s">
         <v>828</v>
@@ -10977,7 +10980,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>740</v>
       </c>
       <c r="E294" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F294" t="s">
         <v>741</v>
@@ -10997,13 +11000,13 @@
         <v>397</v>
       </c>
       <c r="H294" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I294" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11014,7 +11017,7 @@
         <v>742</v>
       </c>
       <c r="E295" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F295" t="s">
         <v>743</v>
@@ -11023,13 +11026,13 @@
         <v>13</v>
       </c>
       <c r="H295" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I295" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>744</v>
       </c>
       <c r="E296" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F296" t="s">
         <v>745</v>
@@ -11049,13 +11052,13 @@
         <v>746</v>
       </c>
       <c r="H296" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I296" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>747</v>
       </c>
       <c r="E297" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F297" t="s">
         <v>748</v>
@@ -11075,13 +11078,13 @@
         <v>224</v>
       </c>
       <c r="H297" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I297" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>749</v>
       </c>
       <c r="E298" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F298" t="s">
         <v>750</v>
@@ -11101,13 +11104,13 @@
         <v>13</v>
       </c>
       <c r="H298" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I298" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11118,7 +11121,7 @@
         <v>751</v>
       </c>
       <c r="E299" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F299" t="s">
         <v>810</v>
@@ -11127,19 +11130,19 @@
         <v>752</v>
       </c>
       <c r="H299" t="s">
+        <v>939</v>
+      </c>
+      <c r="I299" t="s">
+        <v>828</v>
+      </c>
+      <c r="K299" t="s">
         <v>940</v>
-      </c>
-      <c r="I299" t="s">
-        <v>828</v>
-      </c>
-      <c r="K299" t="s">
-        <v>941</v>
       </c>
       <c r="L299" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>753</v>
       </c>
       <c r="E300" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F300" t="s">
         <v>811</v>
@@ -11159,19 +11162,19 @@
         <v>736</v>
       </c>
       <c r="H300" t="s">
+        <v>939</v>
+      </c>
+      <c r="I300" t="s">
+        <v>828</v>
+      </c>
+      <c r="K300" t="s">
         <v>940</v>
-      </c>
-      <c r="I300" t="s">
-        <v>828</v>
-      </c>
-      <c r="K300" t="s">
-        <v>941</v>
       </c>
       <c r="L300" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11182,7 +11185,7 @@
         <v>754</v>
       </c>
       <c r="E301" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F301" t="s">
         <v>755</v>
@@ -11191,13 +11194,13 @@
         <v>397</v>
       </c>
       <c r="H301" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I301" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>756</v>
       </c>
       <c r="E302" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F302" t="s">
         <v>757</v>
@@ -11217,13 +11220,13 @@
         <v>397</v>
       </c>
       <c r="H302" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I302" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11234,7 +11237,7 @@
         <v>758</v>
       </c>
       <c r="E303" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F303" t="s">
         <v>759</v>
@@ -11243,13 +11246,13 @@
         <v>224</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I303" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>760</v>
       </c>
       <c r="E304" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F304" t="s">
         <v>812</v>
@@ -11269,13 +11272,13 @@
         <v>761</v>
       </c>
       <c r="H304" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I304" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>762</v>
       </c>
       <c r="E305" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F305" t="s">
         <v>763</v>
@@ -11295,13 +11298,13 @@
         <v>41</v>
       </c>
       <c r="H305" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="I305" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>764</v>
       </c>
       <c r="E306" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F306" t="s">
         <v>765</v>
@@ -11321,13 +11324,13 @@
         <v>41</v>
       </c>
       <c r="H306" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I306" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>766</v>
       </c>
       <c r="E307" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F307" t="s">
         <v>767</v>
@@ -11347,13 +11350,13 @@
         <v>28</v>
       </c>
       <c r="H307" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I307" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>768</v>
       </c>
       <c r="E308" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F308" t="s">
         <v>769</v>
@@ -11373,13 +11376,13 @@
         <v>173</v>
       </c>
       <c r="H308" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I308" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11390,7 +11393,7 @@
         <v>770</v>
       </c>
       <c r="E309" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F309" t="s">
         <v>771</v>
@@ -11399,13 +11402,13 @@
         <v>56</v>
       </c>
       <c r="H309" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I309" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F310" t="s">
         <v>360</v>
@@ -11431,7 +11434,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>5</v>
       </c>
       <c r="E311" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F311" t="s">
         <v>773</v>
@@ -11451,13 +11454,13 @@
         <v>774</v>
       </c>
       <c r="H311" t="s">
+        <v>944</v>
+      </c>
+      <c r="I311" t="s">
         <v>945</v>
       </c>
-      <c r="I311" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11468,7 +11471,7 @@
         <v>8</v>
       </c>
       <c r="E312" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F312" t="s">
         <v>775</v>
@@ -11477,13 +11480,13 @@
         <v>139</v>
       </c>
       <c r="H312" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I312" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>11</v>
       </c>
       <c r="E313" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F313" t="s">
         <v>357</v>
@@ -11509,19 +11512,19 @@
         <v>827</v>
       </c>
       <c r="K313" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="L313" t="s">
+        <v>945</v>
+      </c>
+      <c r="M313" t="s">
         <v>946</v>
       </c>
-      <c r="M313" t="s">
-        <v>947</v>
-      </c>
       <c r="N313" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11532,7 +11535,7 @@
         <v>14</v>
       </c>
       <c r="E314" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F314" t="s">
         <v>776</v>
@@ -11541,13 +11544,13 @@
         <v>777</v>
       </c>
       <c r="H314" t="s">
+        <v>944</v>
+      </c>
+      <c r="I314" t="s">
         <v>945</v>
       </c>
-      <c r="I314" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>17</v>
       </c>
       <c r="E315" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F315" t="s">
         <v>815</v>
@@ -11567,19 +11570,19 @@
         <v>816</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I315" t="s">
+        <v>945</v>
+      </c>
+      <c r="K315" t="s">
         <v>946</v>
       </c>
-      <c r="K315" t="s">
-        <v>947</v>
-      </c>
       <c r="L315" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>20</v>
       </c>
       <c r="E316" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F316" t="s">
         <v>778</v>
@@ -11599,13 +11602,13 @@
         <v>779</v>
       </c>
       <c r="H316" t="s">
+        <v>944</v>
+      </c>
+      <c r="I316" t="s">
         <v>945</v>
       </c>
-      <c r="I316" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11616,7 +11619,7 @@
         <v>23</v>
       </c>
       <c r="E317" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F317" t="s">
         <v>780</v>
@@ -11625,13 +11628,13 @@
         <v>781</v>
       </c>
       <c r="H317" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I317" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11642,7 +11645,7 @@
         <v>26</v>
       </c>
       <c r="E318" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F318" t="s">
         <v>813</v>
@@ -11651,13 +11654,13 @@
         <v>814</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I318" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>29</v>
       </c>
       <c r="E319" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F319" t="s">
         <v>782</v>
@@ -11677,13 +11680,13 @@
         <v>783</v>
       </c>
       <c r="H319" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I319" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>32</v>
       </c>
       <c r="E320" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F320" t="s">
         <v>784</v>
@@ -11703,10 +11706,10 @@
         <v>785</v>
       </c>
       <c r="H320" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I320" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1900_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1900_Winter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FEFFD-BC2D-428C-BDF3-7E06A568CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CF6B7-0291-429E-8AB7-DB3F3A8D3F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="956">
   <si>
     <t>1900</t>
   </si>
@@ -3245,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N320"/>
+  <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G87" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="G288" workbookViewId="0">
+      <selection activeCell="G313" sqref="A313:XFD313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11278,7 +11278,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11518,13 +11518,19 @@
         <v>945</v>
       </c>
       <c r="M313" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="N313" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" t="s">
+        <v>946</v>
+      </c>
+      <c r="P313" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11608,7 +11614,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11634,7 +11640,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11660,7 +11666,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11686,7 +11692,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>0</v>
       </c>

--- a/data-migration/xlsx_1900-/1900_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1900_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3CF6B7-0291-429E-8AB7-DB3F3A8D3F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EAFA76-4D5F-4D39-90CA-63D208102BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2543,9 +2543,6 @@
     <t>egli_e</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>christ_p</t>
   </si>
   <si>
@@ -2606,9 +2603,6 @@
     <t>buehler_a</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>gaule_j</t>
   </si>
   <si>
@@ -2618,9 +2612,6 @@
     <t>hoeber_r</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>silberschmidt_w</t>
   </si>
   <si>
@@ -2660,9 +2651,6 @@
     <t>kreis_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>kaufmann_k</t>
   </si>
   <si>
@@ -2684,15 +2672,9 @@
     <t>bleuler_e</t>
   </si>
   <si>
-    <t>kappeler_a</t>
-  </si>
-  <si>
     <t>billeter_j</t>
   </si>
   <si>
-    <t>vonwyss_h1</t>
-  </si>
-  <si>
     <t>suchannek_h</t>
   </si>
   <si>
@@ -2744,9 +2726,6 @@
     <t>bachmann_a</t>
   </si>
   <si>
-    <t>hoffmann_e</t>
-  </si>
-  <si>
     <t>frey_a</t>
   </si>
   <si>
@@ -2858,9 +2837,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>heuscher_j</t>
   </si>
   <si>
@@ -2901,6 +2877,30 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>kappeler_ga</t>
+  </si>
+  <si>
+    <t>hoffmann-krayer_e</t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss_h</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
   </si>
 </sst>
 </file>
@@ -2943,7 +2943,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3247,20 +3247,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G288" workbookViewId="0">
-      <selection activeCell="G313" sqref="A313:XFD313"/>
+    <sheetView tabSelected="1" topLeftCell="G285" workbookViewId="0">
+      <selection activeCell="H302" sqref="H302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="129.28515625" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="129.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -3286,10 +3286,10 @@
         <v>827</v>
       </c>
       <c r="J1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -3315,7 +3315,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -3341,7 +3341,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -3367,7 +3367,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -3393,7 +3393,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -3419,7 +3419,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -3445,7 +3445,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3471,7 +3471,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F9" t="s">
         <v>27</v>
@@ -3497,7 +3497,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -3523,7 +3523,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -3543,13 +3543,13 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="I11" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -3569,13 +3569,13 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>883</v>
+        <v>948</v>
       </c>
       <c r="I12" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F13" t="s">
         <v>786</v>
@@ -3601,7 +3601,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F14" t="s">
         <v>817</v>
@@ -3627,7 +3627,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F15" t="s">
         <v>787</v>
@@ -3653,7 +3653,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F16" t="s">
         <v>788</v>
@@ -3673,13 +3673,13 @@
         <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>836</v>
+        <v>952</v>
       </c>
       <c r="I16" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F17" t="s">
         <v>45</v>
@@ -3699,13 +3699,13 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>836</v>
+        <v>952</v>
       </c>
       <c r="I17" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -3725,13 +3725,13 @@
         <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>836</v>
+        <v>952</v>
       </c>
       <c r="I18" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F19" t="s">
         <v>789</v>
@@ -3751,16 +3751,16 @@
         <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I19" t="s">
         <v>828</v>
       </c>
       <c r="J19" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F20" t="s">
         <v>52</v>
@@ -3780,16 +3780,16 @@
         <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I20" t="s">
         <v>828</v>
       </c>
       <c r="J20" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -3809,13 +3809,13 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I21" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F22" t="s">
         <v>58</v>
@@ -3835,13 +3835,13 @@
         <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I22" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F23" t="s">
         <v>60</v>
@@ -3861,13 +3861,13 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I23" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F24" t="s">
         <v>62</v>
@@ -3887,13 +3887,13 @@
         <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I24" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F25" t="s">
         <v>65</v>
@@ -3919,7 +3919,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -3945,7 +3945,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
@@ -3971,7 +3971,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -3997,7 +3997,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F29" t="s">
         <v>77</v>
@@ -4017,16 +4017,16 @@
         <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I29" t="s">
         <v>828</v>
       </c>
       <c r="J29" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
@@ -4052,7 +4052,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F31" t="s">
         <v>790</v>
@@ -4072,13 +4072,13 @@
         <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I31" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F32" t="s">
         <v>84</v>
@@ -4098,13 +4098,13 @@
         <v>85</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I32" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
@@ -4124,13 +4124,13 @@
         <v>88</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I33" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F34" t="s">
         <v>90</v>
@@ -4150,13 +4150,13 @@
         <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I34" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F35" t="s">
         <v>92</v>
@@ -4176,13 +4176,13 @@
         <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I35" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -4202,13 +4202,13 @@
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I36" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F37" t="s">
         <v>98</v>
@@ -4228,13 +4228,13 @@
         <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I37" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F38" t="s">
         <v>101</v>
@@ -4254,13 +4254,13 @@
         <v>102</v>
       </c>
       <c r="H38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I38" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F39" t="s">
         <v>104</v>
@@ -4280,13 +4280,13 @@
         <v>105</v>
       </c>
       <c r="H39" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I39" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F40" t="s">
         <v>791</v>
@@ -4306,13 +4306,13 @@
         <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I40" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
@@ -4332,13 +4332,13 @@
         <v>53</v>
       </c>
       <c r="H41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I41" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -4358,13 +4358,13 @@
         <v>111</v>
       </c>
       <c r="H42" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I42" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F43" t="s">
         <v>113</v>
@@ -4384,13 +4384,13 @@
         <v>114</v>
       </c>
       <c r="H43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I43" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F44" t="s">
         <v>116</v>
@@ -4410,13 +4410,13 @@
         <v>117</v>
       </c>
       <c r="H44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I44" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F45" t="s">
         <v>119</v>
@@ -4436,16 +4436,16 @@
         <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I45" t="s">
         <v>828</v>
       </c>
       <c r="J45" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F46" t="s">
         <v>121</v>
@@ -4465,16 +4465,16 @@
         <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I46" t="s">
         <v>828</v>
       </c>
       <c r="J46" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>123</v>
       </c>
       <c r="E47" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F47" t="s">
         <v>124</v>
@@ -4494,13 +4494,13 @@
         <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I47" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F48" t="s">
         <v>127</v>
@@ -4520,13 +4520,13 @@
         <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I48" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F49" t="s">
         <v>130</v>
@@ -4546,13 +4546,13 @@
         <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I49" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F50" t="s">
         <v>133</v>
@@ -4572,13 +4572,13 @@
         <v>134</v>
       </c>
       <c r="H50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I50" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F51" t="s">
         <v>136</v>
@@ -4598,13 +4598,13 @@
         <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I51" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F52" t="s">
         <v>138</v>
@@ -4624,13 +4624,13 @@
         <v>139</v>
       </c>
       <c r="H52" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I52" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F53" t="s">
         <v>141</v>
@@ -4650,13 +4650,13 @@
         <v>142</v>
       </c>
       <c r="H53" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I53" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F54" t="s">
         <v>144</v>
@@ -4676,13 +4676,13 @@
         <v>145</v>
       </c>
       <c r="H54" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I54" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F55" t="s">
         <v>147</v>
@@ -4702,13 +4702,13 @@
         <v>148</v>
       </c>
       <c r="H55" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I55" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F56" t="s">
         <v>150</v>
@@ -4728,13 +4728,13 @@
         <v>148</v>
       </c>
       <c r="H56" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I56" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F57" t="s">
         <v>152</v>
@@ -4754,13 +4754,13 @@
         <v>153</v>
       </c>
       <c r="H57" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I57" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F58" t="s">
         <v>155</v>
@@ -4780,13 +4780,13 @@
         <v>156</v>
       </c>
       <c r="H58" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I58" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F59" t="s">
         <v>158</v>
@@ -4806,16 +4806,16 @@
         <v>159</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I59" t="s">
         <v>828</v>
       </c>
       <c r="J59" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F60" t="s">
         <v>161</v>
@@ -4835,13 +4835,13 @@
         <v>69</v>
       </c>
       <c r="H60" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I60" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F61" t="s">
         <v>163</v>
@@ -4861,13 +4861,13 @@
         <v>164</v>
       </c>
       <c r="H61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I61" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F62" t="s">
         <v>166</v>
@@ -4887,22 +4887,22 @@
         <v>167</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I62" t="s">
+        <v>828</v>
+      </c>
+      <c r="J62" t="s">
+        <v>839</v>
+      </c>
+      <c r="K62" t="s">
         <v>850</v>
       </c>
-      <c r="I62" t="s">
-        <v>828</v>
-      </c>
-      <c r="J62" t="s">
-        <v>840</v>
-      </c>
-      <c r="K62" t="s">
-        <v>851</v>
-      </c>
       <c r="L62" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>168</v>
       </c>
       <c r="E63" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F63" t="s">
         <v>169</v>
@@ -4922,22 +4922,22 @@
         <v>170</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I63" t="s">
+        <v>828</v>
+      </c>
+      <c r="J63" t="s">
+        <v>839</v>
+      </c>
+      <c r="K63" t="s">
         <v>850</v>
       </c>
-      <c r="I63" t="s">
-        <v>828</v>
-      </c>
-      <c r="J63" t="s">
-        <v>840</v>
-      </c>
-      <c r="K63" t="s">
-        <v>851</v>
-      </c>
       <c r="L63" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F64" t="s">
         <v>172</v>
@@ -4957,22 +4957,22 @@
         <v>173</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="I64" t="s">
+        <v>828</v>
+      </c>
+      <c r="J64" t="s">
+        <v>839</v>
+      </c>
+      <c r="K64" t="s">
         <v>850</v>
       </c>
-      <c r="I64" t="s">
-        <v>828</v>
-      </c>
-      <c r="J64" t="s">
-        <v>840</v>
-      </c>
-      <c r="K64" t="s">
-        <v>851</v>
-      </c>
       <c r="L64" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>174</v>
       </c>
       <c r="E65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F65" t="s">
         <v>175</v>
@@ -4992,13 +4992,13 @@
         <v>176</v>
       </c>
       <c r="H65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I65" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F66" t="s">
         <v>178</v>
@@ -5018,13 +5018,13 @@
         <v>179</v>
       </c>
       <c r="H66" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I66" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F67" t="s">
         <v>181</v>
@@ -5044,13 +5044,13 @@
         <v>182</v>
       </c>
       <c r="H67" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I67" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>183</v>
       </c>
       <c r="E68" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F68" t="s">
         <v>184</v>
@@ -5070,13 +5070,13 @@
         <v>185</v>
       </c>
       <c r="H68" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I68" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F69" t="s">
         <v>187</v>
@@ -5096,13 +5096,13 @@
         <v>188</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I69" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F70" t="s">
         <v>190</v>
@@ -5122,13 +5122,13 @@
         <v>191</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>857</v>
+        <v>951</v>
       </c>
       <c r="I70" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F71" t="s">
         <v>193</v>
@@ -5148,13 +5148,13 @@
         <v>173</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>857</v>
+        <v>951</v>
       </c>
       <c r="I71" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F72" t="s">
         <v>195</v>
@@ -5174,13 +5174,13 @@
         <v>196</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I72" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>197</v>
       </c>
       <c r="E73" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F73" t="s">
         <v>198</v>
@@ -5200,13 +5200,13 @@
         <v>199</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I73" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>200</v>
       </c>
       <c r="E74" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F74" t="s">
         <v>792</v>
@@ -5226,13 +5226,13 @@
         <v>201</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I74" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F75" t="s">
         <v>203</v>
@@ -5252,13 +5252,13 @@
         <v>173</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I75" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>204</v>
       </c>
       <c r="E76" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F76" t="s">
         <v>205</v>
@@ -5278,13 +5278,13 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I76" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>206</v>
       </c>
       <c r="E77" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F77" t="s">
         <v>207</v>
@@ -5304,13 +5304,13 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I77" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>209</v>
       </c>
       <c r="E78" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F78" t="s">
         <v>210</v>
@@ -5330,13 +5330,13 @@
         <v>211</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="I78" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F79" t="s">
         <v>213</v>
@@ -5356,13 +5356,13 @@
         <v>214</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="I79" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>215</v>
       </c>
       <c r="E80" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F80" t="s">
         <v>216</v>
@@ -5382,13 +5382,13 @@
         <v>217</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="I80" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F81" t="s">
         <v>219</v>
@@ -5408,13 +5408,13 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I81" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>220</v>
       </c>
       <c r="E82" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F82" t="s">
         <v>221</v>
@@ -5434,13 +5434,13 @@
         <v>793</v>
       </c>
       <c r="H82" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I82" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>222</v>
       </c>
       <c r="E83" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F83" t="s">
         <v>223</v>
@@ -5460,13 +5460,13 @@
         <v>224</v>
       </c>
       <c r="H83" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I83" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>225</v>
       </c>
       <c r="E84" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F84" t="s">
         <v>226</v>
@@ -5486,13 +5486,13 @@
         <v>227</v>
       </c>
       <c r="H84" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I84" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F85" t="s">
         <v>229</v>
@@ -5512,13 +5512,13 @@
         <v>230</v>
       </c>
       <c r="H85" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I85" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>231</v>
       </c>
       <c r="E86" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F86" t="s">
         <v>232</v>
@@ -5538,13 +5538,13 @@
         <v>233</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I86" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>234</v>
       </c>
       <c r="E87" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F87" t="s">
         <v>235</v>
@@ -5564,13 +5564,13 @@
         <v>236</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I87" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F88" t="s">
         <v>238</v>
@@ -5590,13 +5590,13 @@
         <v>239</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I88" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>240</v>
       </c>
       <c r="E89" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F89" t="s">
         <v>241</v>
@@ -5616,13 +5616,13 @@
         <v>242</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I89" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>243</v>
       </c>
       <c r="E90" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F90" t="s">
         <v>244</v>
@@ -5642,13 +5642,13 @@
         <v>173</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="I90" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>245</v>
       </c>
       <c r="E91" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F91" t="s">
         <v>246</v>
@@ -5668,13 +5668,13 @@
         <v>247</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>857</v>
+        <v>951</v>
       </c>
       <c r="I91" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>248</v>
       </c>
       <c r="E92" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F92" t="s">
         <v>249</v>
@@ -5694,13 +5694,13 @@
         <v>250</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I92" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F93" t="s">
         <v>252</v>
@@ -5720,13 +5720,13 @@
         <v>253</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I93" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>254</v>
       </c>
       <c r="E94" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F94" t="s">
         <v>255</v>
@@ -5746,13 +5746,13 @@
         <v>256</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I94" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>257</v>
       </c>
       <c r="E95" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F95" t="s">
         <v>258</v>
@@ -5772,13 +5772,13 @@
         <v>41</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I95" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>259</v>
       </c>
       <c r="E96" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F96" t="s">
         <v>820</v>
@@ -5798,13 +5798,13 @@
         <v>260</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I96" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>261</v>
       </c>
       <c r="E97" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F97" t="s">
         <v>262</v>
@@ -5824,13 +5824,13 @@
         <v>263</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I97" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F98" t="s">
         <v>819</v>
@@ -5850,13 +5850,13 @@
         <v>265</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I98" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>266</v>
       </c>
       <c r="E99" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F99" t="s">
         <v>267</v>
@@ -5876,13 +5876,13 @@
         <v>268</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>861</v>
+        <v>954</v>
       </c>
       <c r="I99" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>269</v>
       </c>
       <c r="E100" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F100" t="s">
         <v>270</v>
@@ -5902,13 +5902,13 @@
         <v>271</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I100" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F101" t="s">
         <v>273</v>
@@ -5928,13 +5928,13 @@
         <v>274</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I101" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F102" t="s">
         <v>276</v>
@@ -5954,13 +5954,13 @@
         <v>794</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>857</v>
+        <v>951</v>
       </c>
       <c r="I102" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F103" t="s">
         <v>278</v>
@@ -5980,13 +5980,13 @@
         <v>279</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I103" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F104" t="s">
         <v>281</v>
@@ -6006,13 +6006,13 @@
         <v>282</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I104" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F105" t="s">
         <v>284</v>
@@ -6032,13 +6032,13 @@
         <v>13</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I105" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>285</v>
       </c>
       <c r="E106" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F106" t="s">
         <v>286</v>
@@ -6058,13 +6058,13 @@
         <v>13</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I106" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>287</v>
       </c>
       <c r="E107" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F107" t="s">
         <v>818</v>
@@ -6084,13 +6084,13 @@
         <v>288</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I107" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F108" t="s">
         <v>290</v>
@@ -6110,13 +6110,13 @@
         <v>41</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I108" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>291</v>
       </c>
       <c r="E109" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F109" t="s">
         <v>292</v>
@@ -6136,13 +6136,13 @@
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I109" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F110" t="s">
         <v>294</v>
@@ -6162,13 +6162,13 @@
         <v>295</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I110" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>296</v>
       </c>
       <c r="E111" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F111" t="s">
         <v>297</v>
@@ -6188,13 +6188,13 @@
         <v>13</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I111" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>298</v>
       </c>
       <c r="E112" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F112" t="s">
         <v>299</v>
@@ -6214,13 +6214,13 @@
         <v>300</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I112" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -6231,22 +6231,22 @@
         <v>301</v>
       </c>
       <c r="E113" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F113" t="s">
         <v>302</v>
       </c>
       <c r="G113" t="s">
+        <v>942</v>
+      </c>
+      <c r="H113" t="s">
         <v>950</v>
       </c>
-      <c r="H113" t="s">
-        <v>875</v>
-      </c>
       <c r="I113" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>303</v>
       </c>
       <c r="E114" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F114" t="s">
         <v>304</v>
@@ -6266,13 +6266,13 @@
         <v>305</v>
       </c>
       <c r="H114" t="s">
-        <v>875</v>
+        <v>950</v>
       </c>
       <c r="I114" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>306</v>
       </c>
       <c r="E115" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F115" t="s">
         <v>307</v>
@@ -6292,13 +6292,13 @@
         <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I115" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>308</v>
       </c>
       <c r="E116" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F116" t="s">
         <v>309</v>
@@ -6318,13 +6318,13 @@
         <v>310</v>
       </c>
       <c r="H116" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I116" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>311</v>
       </c>
       <c r="E117" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F117" t="s">
         <v>312</v>
@@ -6344,13 +6344,13 @@
         <v>41</v>
       </c>
       <c r="H117" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I117" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>313</v>
       </c>
       <c r="E118" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F118" t="s">
         <v>314</v>
@@ -6370,13 +6370,13 @@
         <v>315</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I118" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>316</v>
       </c>
       <c r="E119" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F119" t="s">
         <v>317</v>
@@ -6396,13 +6396,13 @@
         <v>41</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I119" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F120" t="s">
         <v>319</v>
@@ -6422,13 +6422,13 @@
         <v>75</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I120" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>320</v>
       </c>
       <c r="E121" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F121" t="s">
         <v>321</v>
@@ -6448,13 +6448,13 @@
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I121" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>0</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>322</v>
       </c>
       <c r="E122" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F122" t="s">
         <v>323</v>
@@ -6474,13 +6474,13 @@
         <v>324</v>
       </c>
       <c r="H122" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I122" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>325</v>
       </c>
       <c r="E123" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F123" t="s">
         <v>326</v>
@@ -6500,13 +6500,13 @@
         <v>327</v>
       </c>
       <c r="H123" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I123" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>328</v>
       </c>
       <c r="E124" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F124" t="s">
         <v>821</v>
@@ -6526,13 +6526,13 @@
         <v>56</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I124" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>329</v>
       </c>
       <c r="E125" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F125" t="s">
         <v>330</v>
@@ -6552,13 +6552,13 @@
         <v>331</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I125" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>332</v>
       </c>
       <c r="E126" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F126" t="s">
         <v>333</v>
@@ -6578,13 +6578,13 @@
         <v>334</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I126" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>335</v>
       </c>
       <c r="E127" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F127" t="s">
         <v>336</v>
@@ -6604,13 +6604,13 @@
         <v>337</v>
       </c>
       <c r="H127" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I127" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>338</v>
       </c>
       <c r="E128" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F128" t="s">
         <v>339</v>
@@ -6630,13 +6630,13 @@
         <v>340</v>
       </c>
       <c r="H128" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I128" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>341</v>
       </c>
       <c r="E129" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F129" t="s">
         <v>342</v>
@@ -6656,13 +6656,13 @@
         <v>343</v>
       </c>
       <c r="H129" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="I129" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>344</v>
       </c>
       <c r="E130" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F130" t="s">
         <v>345</v>
@@ -6682,13 +6682,13 @@
         <v>346</v>
       </c>
       <c r="H130" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="I130" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>347</v>
       </c>
       <c r="E131" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F131" t="s">
         <v>348</v>
@@ -6708,13 +6708,13 @@
         <v>349</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I131" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>0</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>350</v>
       </c>
       <c r="E132" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F132" t="s">
         <v>351</v>
@@ -6734,13 +6734,13 @@
         <v>352</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="I132" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>353</v>
       </c>
       <c r="E133" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F133" t="s">
         <v>354</v>
@@ -6760,13 +6760,13 @@
         <v>355</v>
       </c>
       <c r="H133" t="s">
-        <v>885</v>
+        <v>953</v>
       </c>
       <c r="I133" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>0</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>356</v>
       </c>
       <c r="E134" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F134" t="s">
         <v>357</v>
@@ -6786,13 +6786,13 @@
         <v>358</v>
       </c>
       <c r="H134" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I134" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>359</v>
       </c>
       <c r="E135" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F135" t="s">
         <v>360</v>
@@ -6812,13 +6812,13 @@
         <v>188</v>
       </c>
       <c r="H135" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I135" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>0</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>361</v>
       </c>
       <c r="E136" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F136" t="s">
         <v>362</v>
@@ -6838,13 +6838,13 @@
         <v>28</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="I136" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>0</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>363</v>
       </c>
       <c r="E137" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F137" t="s">
         <v>796</v>
@@ -6864,13 +6864,13 @@
         <v>795</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="I137" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>364</v>
       </c>
       <c r="E138" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F138" t="s">
         <v>365</v>
@@ -6890,13 +6890,13 @@
         <v>366</v>
       </c>
       <c r="H138" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I138" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>0</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>367</v>
       </c>
       <c r="E139" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F139" t="s">
         <v>365</v>
@@ -6916,13 +6916,13 @@
         <v>236</v>
       </c>
       <c r="H139" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="I139" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>0</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F140" t="s">
         <v>369</v>
@@ -6942,13 +6942,13 @@
         <v>370</v>
       </c>
       <c r="H140" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="I140" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F141" t="s">
         <v>372</v>
@@ -6968,13 +6968,13 @@
         <v>373</v>
       </c>
       <c r="H141" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I141" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>374</v>
       </c>
       <c r="E142" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F142" t="s">
         <v>375</v>
@@ -6994,13 +6994,13 @@
         <v>376</v>
       </c>
       <c r="H142" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I142" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>0</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F143" t="s">
         <v>378</v>
@@ -7020,13 +7020,13 @@
         <v>370</v>
       </c>
       <c r="H143" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I143" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>379</v>
       </c>
       <c r="E144" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F144" t="s">
         <v>380</v>
@@ -7046,13 +7046,13 @@
         <v>41</v>
       </c>
       <c r="H144" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I144" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>381</v>
       </c>
       <c r="E145" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F145" t="s">
         <v>382</v>
@@ -7072,13 +7072,13 @@
         <v>41</v>
       </c>
       <c r="H145" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I145" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>0</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F146" t="s">
         <v>384</v>
@@ -7098,13 +7098,13 @@
         <v>385</v>
       </c>
       <c r="H146" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="I146" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>386</v>
       </c>
       <c r="E147" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F147" t="s">
         <v>387</v>
@@ -7124,13 +7124,13 @@
         <v>388</v>
       </c>
       <c r="H147" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I147" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>389</v>
       </c>
       <c r="E148" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F148" t="s">
         <v>390</v>
@@ -7150,13 +7150,13 @@
         <v>391</v>
       </c>
       <c r="H148" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I148" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>392</v>
       </c>
       <c r="E149" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F149" t="s">
         <v>393</v>
@@ -7176,13 +7176,13 @@
         <v>394</v>
       </c>
       <c r="H149" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I149" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>0</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>395</v>
       </c>
       <c r="E150" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F150" t="s">
         <v>396</v>
@@ -7202,13 +7202,13 @@
         <v>397</v>
       </c>
       <c r="H150" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I150" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>826</v>
       </c>
       <c r="E151" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F151" t="s">
         <v>822</v>
@@ -7228,13 +7228,13 @@
         <v>398</v>
       </c>
       <c r="H151" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I151" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>0</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>399</v>
       </c>
       <c r="E152" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F152" t="s">
         <v>400</v>
@@ -7254,13 +7254,13 @@
         <v>401</v>
       </c>
       <c r="H152" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="I152" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>0</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>402</v>
       </c>
       <c r="E153" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F153" t="s">
         <v>824</v>
@@ -7280,13 +7280,13 @@
         <v>403</v>
       </c>
       <c r="H153" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I153" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>0</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>404</v>
       </c>
       <c r="E154" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F154" t="s">
         <v>405</v>
@@ -7306,13 +7306,13 @@
         <v>406</v>
       </c>
       <c r="H154" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I154" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>407</v>
       </c>
       <c r="E155" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F155" t="s">
         <v>408</v>
@@ -7332,13 +7332,13 @@
         <v>409</v>
       </c>
       <c r="H155" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I155" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>0</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>410</v>
       </c>
       <c r="E156" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F156" t="s">
         <v>823</v>
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="H156" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I156" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F157" t="s">
         <v>413</v>
@@ -7384,13 +7384,13 @@
         <v>414</v>
       </c>
       <c r="H157" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I157" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>0</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>415</v>
       </c>
       <c r="E158" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F158" t="s">
         <v>416</v>
@@ -7410,13 +7410,13 @@
         <v>56</v>
       </c>
       <c r="H158" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I158" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>417</v>
       </c>
       <c r="E159" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F159" t="s">
         <v>418</v>
@@ -7436,13 +7436,13 @@
         <v>56</v>
       </c>
       <c r="H159" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I159" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>419</v>
       </c>
       <c r="E160" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F160" t="s">
         <v>420</v>
@@ -7462,13 +7462,13 @@
         <v>41</v>
       </c>
       <c r="H160" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I160" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>421</v>
       </c>
       <c r="E161" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F161" t="s">
         <v>422</v>
@@ -7494,7 +7494,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>0</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>423</v>
       </c>
       <c r="E162" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F162" t="s">
         <v>424</v>
@@ -7514,13 +7514,13 @@
         <v>425</v>
       </c>
       <c r="H162" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I162" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>426</v>
       </c>
       <c r="E163" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F163" t="s">
         <v>427</v>
@@ -7540,13 +7540,13 @@
         <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I163" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>0</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>428</v>
       </c>
       <c r="E164" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F164" t="s">
         <v>429</v>
@@ -7566,13 +7566,13 @@
         <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I164" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>0</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>430</v>
       </c>
       <c r="E165" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F165" t="s">
         <v>825</v>
@@ -7592,13 +7592,13 @@
         <v>431</v>
       </c>
       <c r="H165" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I165" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>0</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>432</v>
       </c>
       <c r="E166" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F166" t="s">
         <v>433</v>
@@ -7618,13 +7618,13 @@
         <v>28</v>
       </c>
       <c r="H166" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I166" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>434</v>
       </c>
       <c r="E167" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F167" t="s">
         <v>435</v>
@@ -7644,13 +7644,13 @@
         <v>436</v>
       </c>
       <c r="H167" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I167" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>0</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F168" t="s">
         <v>797</v>
@@ -7670,13 +7670,13 @@
         <v>397</v>
       </c>
       <c r="H168" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I168" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>438</v>
       </c>
       <c r="E169" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F169" t="s">
         <v>439</v>
@@ -7696,13 +7696,13 @@
         <v>41</v>
       </c>
       <c r="H169" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I169" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>0</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>440</v>
       </c>
       <c r="E170" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F170" t="s">
         <v>441</v>
@@ -7722,13 +7722,13 @@
         <v>442</v>
       </c>
       <c r="H170" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I170" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>443</v>
       </c>
       <c r="E171" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F171" t="s">
         <v>444</v>
@@ -7748,13 +7748,13 @@
         <v>224</v>
       </c>
       <c r="H171" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I171" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>445</v>
       </c>
       <c r="E172" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F172" t="s">
         <v>446</v>
@@ -7774,13 +7774,13 @@
         <v>224</v>
       </c>
       <c r="H172" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I172" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>447</v>
       </c>
       <c r="E173" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F173" t="s">
         <v>448</v>
@@ -7800,13 +7800,13 @@
         <v>449</v>
       </c>
       <c r="H173" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I173" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>0</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>450</v>
       </c>
       <c r="E174" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F174" t="s">
         <v>451</v>
@@ -7826,13 +7826,13 @@
         <v>452</v>
       </c>
       <c r="H174" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I174" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>453</v>
       </c>
       <c r="E175" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F175" t="s">
         <v>454</v>
@@ -7852,13 +7852,13 @@
         <v>455</v>
       </c>
       <c r="H175" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I175" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>0</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>456</v>
       </c>
       <c r="E176" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F176" t="s">
         <v>457</v>
@@ -7878,13 +7878,13 @@
         <v>458</v>
       </c>
       <c r="H176" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I176" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>459</v>
       </c>
       <c r="E177" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F177" t="s">
         <v>460</v>
@@ -7904,13 +7904,13 @@
         <v>461</v>
       </c>
       <c r="H177" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I177" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>462</v>
       </c>
       <c r="E178" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F178" t="s">
         <v>463</v>
@@ -7930,13 +7930,13 @@
         <v>282</v>
       </c>
       <c r="H178" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I178" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>464</v>
       </c>
       <c r="E179" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F179" t="s">
         <v>465</v>
@@ -7956,13 +7956,13 @@
         <v>224</v>
       </c>
       <c r="H179" t="s">
-        <v>903</v>
+        <v>949</v>
       </c>
       <c r="I179" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>466</v>
       </c>
       <c r="E180" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F180" t="s">
         <v>467</v>
@@ -7982,13 +7982,13 @@
         <v>468</v>
       </c>
       <c r="H180" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I180" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>469</v>
       </c>
       <c r="E181" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F181" t="s">
         <v>470</v>
@@ -8008,13 +8008,13 @@
         <v>471</v>
       </c>
       <c r="H181" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I181" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>472</v>
       </c>
       <c r="E182" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F182" t="s">
         <v>473</v>
@@ -8034,13 +8034,13 @@
         <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I182" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>474</v>
       </c>
       <c r="E183" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F183" t="s">
         <v>475</v>
@@ -8060,13 +8060,13 @@
         <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I183" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>476</v>
       </c>
       <c r="E184" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F184" t="s">
         <v>477</v>
@@ -8086,13 +8086,13 @@
         <v>478</v>
       </c>
       <c r="H184" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I184" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>479</v>
       </c>
       <c r="E185" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F185" t="s">
         <v>480</v>
@@ -8112,13 +8112,13 @@
         <v>481</v>
       </c>
       <c r="H185" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I185" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>482</v>
       </c>
       <c r="E186" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F186" t="s">
         <v>483</v>
@@ -8138,13 +8138,13 @@
         <v>41</v>
       </c>
       <c r="H186" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I186" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>484</v>
       </c>
       <c r="E187" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F187" t="s">
         <v>485</v>
@@ -8164,13 +8164,13 @@
         <v>41</v>
       </c>
       <c r="H187" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="I187" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>486</v>
       </c>
       <c r="E188" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F188" t="s">
         <v>487</v>
@@ -8190,13 +8190,13 @@
         <v>488</v>
       </c>
       <c r="H188" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I188" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>489</v>
       </c>
       <c r="E189" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F189" t="s">
         <v>490</v>
@@ -8216,13 +8216,13 @@
         <v>491</v>
       </c>
       <c r="H189" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I189" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>492</v>
       </c>
       <c r="E190" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F190" t="s">
         <v>493</v>
@@ -8242,13 +8242,13 @@
         <v>494</v>
       </c>
       <c r="H190" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I190" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>496</v>
       </c>
       <c r="E191" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F191" t="s">
         <v>497</v>
@@ -8271,13 +8271,13 @@
         <v>471</v>
       </c>
       <c r="H191" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I191" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>498</v>
       </c>
       <c r="E192" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F192" t="s">
         <v>499</v>
@@ -8297,13 +8297,13 @@
         <v>500</v>
       </c>
       <c r="H192" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I192" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>501</v>
       </c>
       <c r="E193" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F193" t="s">
         <v>502</v>
@@ -8323,13 +8323,13 @@
         <v>503</v>
       </c>
       <c r="H193" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="I193" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>504</v>
       </c>
       <c r="E194" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F194" t="s">
         <v>505</v>
@@ -8349,13 +8349,13 @@
         <v>506</v>
       </c>
       <c r="H194" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I194" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>507</v>
       </c>
       <c r="E195" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F195" t="s">
         <v>798</v>
@@ -8375,13 +8375,13 @@
         <v>508</v>
       </c>
       <c r="H195" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I195" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>509</v>
       </c>
       <c r="E196" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F196" t="s">
         <v>510</v>
@@ -8401,13 +8401,13 @@
         <v>511</v>
       </c>
       <c r="H196" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I196" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>512</v>
       </c>
       <c r="E197" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F197" t="s">
         <v>513</v>
@@ -8427,13 +8427,13 @@
         <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I197" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>514</v>
       </c>
       <c r="E198" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F198" t="s">
         <v>799</v>
@@ -8453,13 +8453,13 @@
         <v>156</v>
       </c>
       <c r="H198" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I198" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>515</v>
       </c>
       <c r="E199" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F199" t="s">
         <v>800</v>
@@ -8479,13 +8479,13 @@
         <v>41</v>
       </c>
       <c r="H199" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="I199" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>516</v>
       </c>
       <c r="E200" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F200" t="s">
         <v>801</v>
@@ -8505,13 +8505,13 @@
         <v>517</v>
       </c>
       <c r="H200" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I200" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>518</v>
       </c>
       <c r="E201" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F201" t="s">
         <v>519</v>
@@ -8531,13 +8531,13 @@
         <v>28</v>
       </c>
       <c r="H201" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="I201" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>520</v>
       </c>
       <c r="E202" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F202" t="s">
         <v>521</v>
@@ -8557,13 +8557,13 @@
         <v>522</v>
       </c>
       <c r="H202" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I202" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>523</v>
       </c>
       <c r="E203" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F203" t="s">
         <v>524</v>
@@ -8583,13 +8583,13 @@
         <v>28</v>
       </c>
       <c r="H203" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I203" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>525</v>
       </c>
       <c r="E204" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F204" t="s">
         <v>526</v>
@@ -8609,13 +8609,13 @@
         <v>527</v>
       </c>
       <c r="H204" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I204" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>528</v>
       </c>
       <c r="E205" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F205" t="s">
         <v>529</v>
@@ -8635,13 +8635,13 @@
         <v>69</v>
       </c>
       <c r="H205" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="I205" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>530</v>
       </c>
       <c r="E206" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F206" t="s">
         <v>802</v>
@@ -8661,13 +8661,13 @@
         <v>531</v>
       </c>
       <c r="H206" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="I206" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>532</v>
       </c>
       <c r="E207" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F207" t="s">
         <v>533</v>
@@ -8687,13 +8687,13 @@
         <v>488</v>
       </c>
       <c r="H207" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I207" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>534</v>
       </c>
       <c r="E208" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F208" t="s">
         <v>803</v>
@@ -8713,13 +8713,13 @@
         <v>535</v>
       </c>
       <c r="H208" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I208" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>536</v>
       </c>
       <c r="E209" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F209" t="s">
         <v>804</v>
@@ -8739,13 +8739,13 @@
         <v>224</v>
       </c>
       <c r="H209" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I209" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>537</v>
       </c>
       <c r="E210" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F210" t="s">
         <v>538</v>
@@ -8765,13 +8765,13 @@
         <v>28</v>
       </c>
       <c r="H210" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="I210" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>539</v>
       </c>
       <c r="E211" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F211" t="s">
         <v>805</v>
@@ -8791,13 +8791,13 @@
         <v>315</v>
       </c>
       <c r="H211" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I211" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>540</v>
       </c>
       <c r="E212" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F212" t="s">
         <v>541</v>
@@ -8817,13 +8817,13 @@
         <v>13</v>
       </c>
       <c r="H212" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="I212" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>542</v>
       </c>
       <c r="E213" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F213" t="s">
         <v>543</v>
@@ -8843,13 +8843,13 @@
         <v>13</v>
       </c>
       <c r="H213" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I213" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>544</v>
       </c>
       <c r="E214" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F214" t="s">
         <v>806</v>
@@ -8869,16 +8869,16 @@
         <v>545</v>
       </c>
       <c r="H214" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I214" t="s">
         <v>827</v>
       </c>
       <c r="J214" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>546</v>
       </c>
       <c r="E215" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F215" t="s">
         <v>547</v>
@@ -8898,13 +8898,13 @@
         <v>548</v>
       </c>
       <c r="H215" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I215" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>549</v>
       </c>
       <c r="E216" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F216" t="s">
         <v>550</v>
@@ -8924,13 +8924,13 @@
         <v>397</v>
       </c>
       <c r="H216" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="I216" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>551</v>
       </c>
       <c r="E217" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F217" t="s">
         <v>552</v>
@@ -8950,13 +8950,13 @@
         <v>224</v>
       </c>
       <c r="H217" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="I217" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>553</v>
       </c>
       <c r="E218" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F218" t="s">
         <v>554</v>
@@ -8976,13 +8976,13 @@
         <v>41</v>
       </c>
       <c r="H218" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="I218" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>555</v>
       </c>
       <c r="E219" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F219" t="s">
         <v>556</v>
@@ -9002,13 +9002,13 @@
         <v>557</v>
       </c>
       <c r="H219" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I219" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>558</v>
       </c>
       <c r="E220" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F220" t="s">
         <v>559</v>
@@ -9028,13 +9028,13 @@
         <v>214</v>
       </c>
       <c r="H220" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I220" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>560</v>
       </c>
       <c r="E221" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F221" t="s">
         <v>561</v>
@@ -9054,13 +9054,13 @@
         <v>562</v>
       </c>
       <c r="H221" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I221" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>563</v>
       </c>
       <c r="E222" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F222" t="s">
         <v>564</v>
@@ -9080,13 +9080,13 @@
         <v>13</v>
       </c>
       <c r="H222" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I222" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>565</v>
       </c>
       <c r="E223" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F223" t="s">
         <v>566</v>
@@ -9106,13 +9106,13 @@
         <v>567</v>
       </c>
       <c r="H223" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I223" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>568</v>
       </c>
       <c r="E224" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F224" t="s">
         <v>569</v>
@@ -9132,13 +9132,13 @@
         <v>531</v>
       </c>
       <c r="H224" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="I224" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>570</v>
       </c>
       <c r="E225" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F225" t="s">
         <v>571</v>
@@ -9158,16 +9158,16 @@
         <v>572</v>
       </c>
       <c r="H225" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I225" t="s">
         <v>827</v>
       </c>
       <c r="J225" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>573</v>
       </c>
       <c r="E226" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F226" t="s">
         <v>574</v>
@@ -9187,13 +9187,13 @@
         <v>575</v>
       </c>
       <c r="H226" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I226" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>576</v>
       </c>
       <c r="E227" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F227" t="s">
         <v>577</v>
@@ -9213,13 +9213,13 @@
         <v>578</v>
       </c>
       <c r="H227" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="I227" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>579</v>
       </c>
       <c r="E228" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F228" t="s">
         <v>580</v>
@@ -9239,13 +9239,13 @@
         <v>581</v>
       </c>
       <c r="H228" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="I228" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>582</v>
       </c>
       <c r="E229" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F229" t="s">
         <v>583</v>
@@ -9265,13 +9265,13 @@
         <v>78</v>
       </c>
       <c r="H229" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="I229" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>584</v>
       </c>
       <c r="E230" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F230" t="s">
         <v>585</v>
@@ -9291,16 +9291,16 @@
         <v>586</v>
       </c>
       <c r="H230" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="I230" t="s">
         <v>827</v>
       </c>
       <c r="J230" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>587</v>
       </c>
       <c r="E231" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F231" t="s">
         <v>588</v>
@@ -9320,13 +9320,13 @@
         <v>41</v>
       </c>
       <c r="H231" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="I231" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>589</v>
       </c>
       <c r="E232" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F232" t="s">
         <v>590</v>
@@ -9346,13 +9346,13 @@
         <v>13</v>
       </c>
       <c r="H232" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I232" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>591</v>
       </c>
       <c r="E233" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F233" t="s">
         <v>592</v>
@@ -9372,13 +9372,13 @@
         <v>13</v>
       </c>
       <c r="H233" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="I233" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>593</v>
       </c>
       <c r="E234" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F234" t="s">
         <v>594</v>
@@ -9398,13 +9398,13 @@
         <v>548</v>
       </c>
       <c r="H234" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I234" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>595</v>
       </c>
       <c r="E235" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F235" t="s">
         <v>596</v>
@@ -9424,13 +9424,13 @@
         <v>597</v>
       </c>
       <c r="H235" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I235" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>598</v>
       </c>
       <c r="E236" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F236" t="s">
         <v>599</v>
@@ -9450,13 +9450,13 @@
         <v>600</v>
       </c>
       <c r="H236" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="I236" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>601</v>
       </c>
       <c r="E237" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F237" t="s">
         <v>602</v>
@@ -9476,13 +9476,13 @@
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I237" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>603</v>
       </c>
       <c r="E238" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F238" t="s">
         <v>604</v>
@@ -9502,13 +9502,13 @@
         <v>41</v>
       </c>
       <c r="H238" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I238" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>605</v>
       </c>
       <c r="E239" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F239" t="s">
         <v>606</v>
@@ -9528,13 +9528,13 @@
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I239" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>607</v>
       </c>
       <c r="E240" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F240" t="s">
         <v>608</v>
@@ -9554,13 +9554,13 @@
         <v>397</v>
       </c>
       <c r="H240" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I240" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>609</v>
       </c>
       <c r="E241" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F241" t="s">
         <v>610</v>
@@ -9580,13 +9580,13 @@
         <v>230</v>
       </c>
       <c r="H241" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I241" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>0</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>611</v>
       </c>
       <c r="E242" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F242" t="s">
         <v>612</v>
@@ -9606,13 +9606,13 @@
         <v>4</v>
       </c>
       <c r="H242" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I242" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>0</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>613</v>
       </c>
       <c r="E243" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F243" t="s">
         <v>614</v>
@@ -9632,13 +9632,13 @@
         <v>41</v>
       </c>
       <c r="H243" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I243" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>615</v>
       </c>
       <c r="E244" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F244" t="s">
         <v>616</v>
@@ -9658,13 +9658,13 @@
         <v>41</v>
       </c>
       <c r="H244" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I244" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>617</v>
       </c>
       <c r="E245" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F245" t="s">
         <v>618</v>
@@ -9684,13 +9684,13 @@
         <v>56</v>
       </c>
       <c r="H245" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I245" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>619</v>
       </c>
       <c r="E246" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F246" t="s">
         <v>620</v>
@@ -9710,13 +9710,13 @@
         <v>41</v>
       </c>
       <c r="H246" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I246" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>621</v>
       </c>
       <c r="E247" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F247" t="s">
         <v>622</v>
@@ -9736,13 +9736,13 @@
         <v>300</v>
       </c>
       <c r="H247" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="I247" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>623</v>
       </c>
       <c r="E248" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F248" t="s">
         <v>624</v>
@@ -9762,13 +9762,13 @@
         <v>625</v>
       </c>
       <c r="H248" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I248" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>626</v>
       </c>
       <c r="E249" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F249" t="s">
         <v>627</v>
@@ -9791,13 +9791,13 @@
         <v>449</v>
       </c>
       <c r="H249" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I249" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>628</v>
       </c>
       <c r="E250" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F250" t="s">
         <v>629</v>
@@ -9817,13 +9817,13 @@
         <v>630</v>
       </c>
       <c r="H250" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I250" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>631</v>
       </c>
       <c r="E251" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F251" t="s">
         <v>632</v>
@@ -9843,13 +9843,13 @@
         <v>633</v>
       </c>
       <c r="H251" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I251" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>634</v>
       </c>
       <c r="E252" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F252" t="s">
         <v>635</v>
@@ -9869,13 +9869,13 @@
         <v>41</v>
       </c>
       <c r="H252" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I252" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>636</v>
       </c>
       <c r="E253" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F253" t="s">
         <v>637</v>
@@ -9895,13 +9895,13 @@
         <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I253" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>638</v>
       </c>
       <c r="E254" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F254" t="s">
         <v>639</v>
@@ -9921,13 +9921,13 @@
         <v>640</v>
       </c>
       <c r="H254" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I254" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>0</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>641</v>
       </c>
       <c r="E255" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F255" t="s">
         <v>642</v>
@@ -9947,13 +9947,13 @@
         <v>173</v>
       </c>
       <c r="H255" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="I255" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>0</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>643</v>
       </c>
       <c r="E256" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F256" t="s">
         <v>644</v>
@@ -9973,13 +9973,13 @@
         <v>43</v>
       </c>
       <c r="H256" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I256" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>0</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>645</v>
       </c>
       <c r="E257" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F257" t="s">
         <v>646</v>
@@ -9999,13 +9999,13 @@
         <v>647</v>
       </c>
       <c r="H257" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I257" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>0</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>648</v>
       </c>
       <c r="E258" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F258" t="s">
         <v>649</v>
@@ -10025,13 +10025,13 @@
         <v>224</v>
       </c>
       <c r="H258" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I258" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>0</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>650</v>
       </c>
       <c r="E259" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F259" t="s">
         <v>651</v>
@@ -10051,13 +10051,13 @@
         <v>652</v>
       </c>
       <c r="H259" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I259" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>0</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>653</v>
       </c>
       <c r="E260" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F260" t="s">
         <v>654</v>
@@ -10077,13 +10077,13 @@
         <v>655</v>
       </c>
       <c r="H260" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I260" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>656</v>
       </c>
       <c r="E261" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F261" t="s">
         <v>657</v>
@@ -10103,13 +10103,13 @@
         <v>658</v>
       </c>
       <c r="H261" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="I261" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>0</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>659</v>
       </c>
       <c r="E262" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F262" t="s">
         <v>660</v>
@@ -10129,13 +10129,13 @@
         <v>661</v>
       </c>
       <c r="H262" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I262" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>662</v>
       </c>
       <c r="E263" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F263" t="s">
         <v>663</v>
@@ -10155,13 +10155,13 @@
         <v>664</v>
       </c>
       <c r="H263" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I263" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>665</v>
       </c>
       <c r="E264" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F264" t="s">
         <v>666</v>
@@ -10181,13 +10181,13 @@
         <v>667</v>
       </c>
       <c r="H264" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I264" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -10198,19 +10198,19 @@
         <v>668</v>
       </c>
       <c r="E265" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F265" t="s">
         <v>669</v>
       </c>
       <c r="H265" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I265" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>0</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>670</v>
       </c>
       <c r="E266" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F266" t="s">
         <v>671</v>
@@ -10230,13 +10230,13 @@
         <v>672</v>
       </c>
       <c r="H266" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="I266" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>0</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>673</v>
       </c>
       <c r="E267" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F267" t="s">
         <v>674</v>
@@ -10256,13 +10256,13 @@
         <v>675</v>
       </c>
       <c r="H267" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I267" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>0</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>676</v>
       </c>
       <c r="E268" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F268" t="s">
         <v>677</v>
@@ -10282,13 +10282,13 @@
         <v>224</v>
       </c>
       <c r="H268" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I268" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>0</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>678</v>
       </c>
       <c r="E269" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F269" t="s">
         <v>679</v>
@@ -10308,13 +10308,13 @@
         <v>680</v>
       </c>
       <c r="H269" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I269" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>0</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>681</v>
       </c>
       <c r="E270" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F270" t="s">
         <v>682</v>
@@ -10334,13 +10334,13 @@
         <v>488</v>
       </c>
       <c r="H270" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I270" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>0</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>683</v>
       </c>
       <c r="E271" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F271" t="s">
         <v>684</v>
@@ -10360,13 +10360,13 @@
         <v>224</v>
       </c>
       <c r="H271" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I271" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>0</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>685</v>
       </c>
       <c r="E272" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F272" t="s">
         <v>686</v>
@@ -10386,13 +10386,13 @@
         <v>687</v>
       </c>
       <c r="H272" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I272" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>0</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>688</v>
       </c>
       <c r="E273" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F273" t="s">
         <v>689</v>
@@ -10412,13 +10412,13 @@
         <v>690</v>
       </c>
       <c r="H273" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I273" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>0</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>691</v>
       </c>
       <c r="E274" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F274" t="s">
         <v>692</v>
@@ -10438,13 +10438,13 @@
         <v>41</v>
       </c>
       <c r="H274" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I274" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>0</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>693</v>
       </c>
       <c r="E275" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F275" t="s">
         <v>694</v>
@@ -10467,13 +10467,13 @@
         <v>173</v>
       </c>
       <c r="H275" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I275" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>0</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>695</v>
       </c>
       <c r="E276" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F276" t="s">
         <v>696</v>
@@ -10493,13 +10493,13 @@
         <v>697</v>
       </c>
       <c r="H276" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I276" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>698</v>
       </c>
       <c r="E277" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F277" t="s">
         <v>699</v>
@@ -10519,13 +10519,13 @@
         <v>25</v>
       </c>
       <c r="H277" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I277" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>0</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>700</v>
       </c>
       <c r="E278" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F278" t="s">
         <v>701</v>
@@ -10545,13 +10545,13 @@
         <v>702</v>
       </c>
       <c r="H278" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="I278" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>0</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>703</v>
       </c>
       <c r="E279" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F279" t="s">
         <v>704</v>
@@ -10571,13 +10571,13 @@
         <v>41</v>
       </c>
       <c r="H279" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I279" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>0</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>705</v>
       </c>
       <c r="E280" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F280" t="s">
         <v>706</v>
@@ -10597,13 +10597,13 @@
         <v>28</v>
       </c>
       <c r="H280" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I280" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>0</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>707</v>
       </c>
       <c r="E281" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F281" t="s">
         <v>708</v>
@@ -10623,13 +10623,13 @@
         <v>41</v>
       </c>
       <c r="H281" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I281" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>0</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>709</v>
       </c>
       <c r="E282" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F282" t="s">
         <v>710</v>
@@ -10649,13 +10649,13 @@
         <v>28</v>
       </c>
       <c r="H282" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="I282" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>0</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>711</v>
       </c>
       <c r="E283" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F283" t="s">
         <v>712</v>
@@ -10675,13 +10675,13 @@
         <v>713</v>
       </c>
       <c r="H283" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="I283" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>0</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>714</v>
       </c>
       <c r="E284" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F284" t="s">
         <v>807</v>
@@ -10701,19 +10701,19 @@
         <v>715</v>
       </c>
       <c r="H284" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="I284" t="s">
         <v>828</v>
       </c>
       <c r="K284" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="L284" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>0</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>716</v>
       </c>
       <c r="E285" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F285" t="s">
         <v>808</v>
@@ -10733,19 +10733,19 @@
         <v>717</v>
       </c>
       <c r="H285" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="I285" t="s">
         <v>828</v>
       </c>
       <c r="K285" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="L285" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>0</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>718</v>
       </c>
       <c r="E286" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F286" t="s">
         <v>809</v>
@@ -10765,19 +10765,19 @@
         <v>719</v>
       </c>
       <c r="H286" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="I286" t="s">
         <v>828</v>
       </c>
       <c r="K286" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="L286" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>0</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>720</v>
       </c>
       <c r="E287" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F287" t="s">
         <v>721</v>
@@ -10797,16 +10797,16 @@
         <v>722</v>
       </c>
       <c r="H287" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I287" t="s">
         <v>828</v>
       </c>
       <c r="J287" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>0</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>723</v>
       </c>
       <c r="E288" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F288" t="s">
         <v>724</v>
@@ -10826,16 +10826,16 @@
         <v>725</v>
       </c>
       <c r="H288" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I288" t="s">
         <v>828</v>
       </c>
       <c r="J288" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>726</v>
       </c>
       <c r="E289" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F289" t="s">
         <v>727</v>
@@ -10855,16 +10855,16 @@
         <v>728</v>
       </c>
       <c r="H289" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I289" t="s">
         <v>828</v>
       </c>
       <c r="J289" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>0</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>729</v>
       </c>
       <c r="E290" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F290" t="s">
         <v>730</v>
@@ -10884,16 +10884,16 @@
         <v>731</v>
       </c>
       <c r="H290" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I290" t="s">
         <v>828</v>
       </c>
       <c r="J290" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>732</v>
       </c>
       <c r="E291" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F291" t="s">
         <v>733</v>
@@ -10913,16 +10913,16 @@
         <v>300</v>
       </c>
       <c r="H291" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I291" t="s">
         <v>828</v>
       </c>
       <c r="J291" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>0</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>734</v>
       </c>
       <c r="E292" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F292" t="s">
         <v>735</v>
@@ -10942,16 +10942,16 @@
         <v>736</v>
       </c>
       <c r="H292" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I292" t="s">
         <v>828</v>
       </c>
       <c r="J292" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>0</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>737</v>
       </c>
       <c r="E293" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F293" t="s">
         <v>738</v>
@@ -10971,16 +10971,16 @@
         <v>739</v>
       </c>
       <c r="H293" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I293" t="s">
         <v>828</v>
       </c>
       <c r="J293" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>0</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>740</v>
       </c>
       <c r="E294" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F294" t="s">
         <v>741</v>
@@ -11000,13 +11000,13 @@
         <v>397</v>
       </c>
       <c r="H294" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="I294" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>0</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>742</v>
       </c>
       <c r="E295" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F295" t="s">
         <v>743</v>
@@ -11026,13 +11026,13 @@
         <v>13</v>
       </c>
       <c r="H295" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="I295" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>0</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>744</v>
       </c>
       <c r="E296" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F296" t="s">
         <v>745</v>
@@ -11052,13 +11052,13 @@
         <v>746</v>
       </c>
       <c r="H296" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I296" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>747</v>
       </c>
       <c r="E297" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F297" t="s">
         <v>748</v>
@@ -11078,13 +11078,13 @@
         <v>224</v>
       </c>
       <c r="H297" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I297" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>0</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>749</v>
       </c>
       <c r="E298" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F298" t="s">
         <v>750</v>
@@ -11104,13 +11104,13 @@
         <v>13</v>
       </c>
       <c r="H298" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I298" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>0</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>751</v>
       </c>
       <c r="E299" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F299" t="s">
         <v>810</v>
@@ -11130,19 +11130,19 @@
         <v>752</v>
       </c>
       <c r="H299" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I299" t="s">
         <v>828</v>
       </c>
       <c r="K299" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="L299" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>0</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>753</v>
       </c>
       <c r="E300" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F300" t="s">
         <v>811</v>
@@ -11162,19 +11162,19 @@
         <v>736</v>
       </c>
       <c r="H300" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="I300" t="s">
         <v>828</v>
       </c>
       <c r="K300" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="L300" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>754</v>
       </c>
       <c r="E301" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F301" t="s">
         <v>755</v>
@@ -11194,13 +11194,13 @@
         <v>397</v>
       </c>
       <c r="H301" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="I301" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>0</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>756</v>
       </c>
       <c r="E302" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F302" t="s">
         <v>757</v>
@@ -11220,13 +11220,13 @@
         <v>397</v>
       </c>
       <c r="H302" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="I302" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>0</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>758</v>
       </c>
       <c r="E303" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F303" t="s">
         <v>759</v>
@@ -11246,13 +11246,13 @@
         <v>224</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="I303" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>0</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>760</v>
       </c>
       <c r="E304" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F304" t="s">
         <v>812</v>
@@ -11272,13 +11272,13 @@
         <v>761</v>
       </c>
       <c r="H304" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I304" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>0</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>762</v>
       </c>
       <c r="E305" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F305" t="s">
         <v>763</v>
@@ -11298,13 +11298,13 @@
         <v>41</v>
       </c>
       <c r="H305" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I305" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>0</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>764</v>
       </c>
       <c r="E306" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F306" t="s">
         <v>765</v>
@@ -11324,13 +11324,13 @@
         <v>41</v>
       </c>
       <c r="H306" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I306" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>0</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>766</v>
       </c>
       <c r="E307" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F307" t="s">
         <v>767</v>
@@ -11350,13 +11350,13 @@
         <v>28</v>
       </c>
       <c r="H307" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I307" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>0</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>768</v>
       </c>
       <c r="E308" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="F308" t="s">
         <v>769</v>
@@ -11376,13 +11376,13 @@
         <v>173</v>
       </c>
       <c r="H308" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I308" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>0</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>770</v>
       </c>
       <c r="E309" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F309" t="s">
         <v>771</v>
@@ -11402,13 +11402,13 @@
         <v>56</v>
       </c>
       <c r="H309" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I309" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>0</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F310" t="s">
         <v>360</v>
@@ -11428,13 +11428,13 @@
         <v>772</v>
       </c>
       <c r="H310" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I310" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>0</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>5</v>
       </c>
       <c r="E311" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F311" t="s">
         <v>773</v>
@@ -11454,13 +11454,13 @@
         <v>774</v>
       </c>
       <c r="H311" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I311" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>0</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>8</v>
       </c>
       <c r="E312" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F312" t="s">
         <v>775</v>
@@ -11480,13 +11480,13 @@
         <v>139</v>
       </c>
       <c r="H312" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I312" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>11</v>
       </c>
       <c r="E313" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F313" t="s">
         <v>357</v>
@@ -11506,31 +11506,31 @@
         <v>358</v>
       </c>
       <c r="H313" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="I313" t="s">
         <v>827</v>
       </c>
       <c r="K313" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="L313" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="M313" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N313" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="O313" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="P313" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>0</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>14</v>
       </c>
       <c r="E314" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F314" t="s">
         <v>776</v>
@@ -11550,13 +11550,13 @@
         <v>777</v>
       </c>
       <c r="H314" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I314" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>0</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>17</v>
       </c>
       <c r="E315" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F315" t="s">
         <v>815</v>
@@ -11576,19 +11576,19 @@
         <v>816</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I315" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="K315" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="L315" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>0</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>20</v>
       </c>
       <c r="E316" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F316" t="s">
         <v>778</v>
@@ -11608,13 +11608,13 @@
         <v>779</v>
       </c>
       <c r="H316" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I316" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>0</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>23</v>
       </c>
       <c r="E317" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F317" t="s">
         <v>780</v>
@@ -11634,13 +11634,13 @@
         <v>781</v>
       </c>
       <c r="H317" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I317" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>0</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>26</v>
       </c>
       <c r="E318" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F318" t="s">
         <v>813</v>
@@ -11660,13 +11660,13 @@
         <v>814</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I318" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>29</v>
       </c>
       <c r="E319" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F319" t="s">
         <v>782</v>
@@ -11686,13 +11686,13 @@
         <v>783</v>
       </c>
       <c r="H319" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="I319" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>0</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>32</v>
       </c>
       <c r="E320" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F320" t="s">
         <v>784</v>
@@ -11712,10 +11712,10 @@
         <v>785</v>
       </c>
       <c r="H320" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="I320" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
